--- a/data/income_statement/2digits/total/23_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/23_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>23-Manufacture of other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>23-Manufacture of other non-metallic mineral products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>27645792.62354</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>32410969.81321</v>
+        <v>32415968.70681001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>40939471.06886</v>
+        <v>40950028.77167</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>44827308.51575</v>
+        <v>44848460.39896</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>53466334.04194</v>
+        <v>53793202.08555999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>60457564.36355</v>
+        <v>62097385.7944</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>67604068.21972001</v>
+        <v>70418537.76630999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>75663724.80717999</v>
+        <v>76426306.98981</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>90374330.91141</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>107775051.31737</v>
+        <v>107827929.89717</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>104302006.07826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>104720136.33668</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>129648383.293</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>22103801.04073</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>26729249.90176</v>
+        <v>26734248.79536</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>34451084.46737999</v>
+        <v>34461562.28083</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>38121980.67212</v>
+        <v>38141838.29903</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>46137219.90798</v>
+        <v>46396145.19592</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>52401030.48895</v>
+        <v>53881191.52914</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>59083909.94823</v>
+        <v>61232022.73851</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>65917193.24515001</v>
+        <v>66656778.74019</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>77903258.10924999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>89783498.83606</v>
+        <v>89835485.55116001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>81420221.25591001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>81812871.64035</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>100959479.069</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5093486.594649999</v>
@@ -1037,34 +953,39 @@
         <v>5930455.41412</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6055078.67916</v>
+        <v>6055620.47934</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6687947.80313</v>
+        <v>6749101.567</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7249209.760830001</v>
+        <v>7405278.471450001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7507147.369330001</v>
+        <v>8161825.57504</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8453465.569770001</v>
+        <v>8468654.555949999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>10753813.09689</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>15884930.09731</v>
+        <v>15885637.98639</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>20932348.25809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>20949024.96462</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>26563035.933</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>448504.98816</v>
@@ -1073,37 +994,42 @@
         <v>437537.671</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>557931.18736</v>
+        <v>558011.07672</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>650249.1644700001</v>
+        <v>651001.6205900001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>641166.3308299999</v>
+        <v>647955.3226400001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>807324.1137699999</v>
+        <v>810915.7938099999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1013010.90216</v>
+        <v>1024689.45276</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1293065.99226</v>
+        <v>1300873.69367</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1717259.70527</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2106622.384</v>
+        <v>2106806.35962</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1949436.56426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1958239.73171</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2125868.291</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1345572.84875</v>
@@ -1112,37 +1038,42 @@
         <v>1537958.49579</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1756813.67236</v>
+        <v>1756841.41289</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2024428.6949</v>
+        <v>2024447.12337</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2274904.8827</v>
+        <v>2283219.0772</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2641610.49359</v>
+        <v>2690745.4296</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2934428.898219999</v>
+        <v>3478618.14245</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3899328.83702</v>
+        <v>3901013.53191</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>4603179.3573</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5745390.28049</v>
+        <v>5745515.40976</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5838196.562220001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5848270.25026</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6011472.259</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>118858.70335</v>
@@ -1151,37 +1082,42 @@
         <v>116482.29141</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>126773.51573</v>
+        <v>126795.52744</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>228494.84509</v>
+        <v>228508.08544</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>173296.41121</v>
+        <v>173558.74387</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>250607.63006</v>
+        <v>250738.00165</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>256695.77503</v>
+        <v>270522.59861</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>487540.0362</v>
+        <v>488144.8874300001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>573465.1375</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1021457.19684</v>
+        <v>1021578.96931</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>690740.9903099999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>693714.37804</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>769889.904</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>889479.65495</v>
@@ -1190,37 +1126,42 @@
         <v>1048443.89726</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1231331.74198</v>
+        <v>1231337.4708</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1314539.09841</v>
+        <v>1314543.0602</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1544391.14124</v>
+        <v>1552098.26769</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1849510.60432</v>
+        <v>1869425.72575</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1993180.61422</v>
+        <v>2513892.23437</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2664656.86274</v>
+        <v>2665492.30638</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3044238.59694</v>
+        <v>3044238.596940001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3439114.46337</v>
+        <v>3439114.55817</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3661033.47684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3663431.68785</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3691295.261</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>337234.49045</v>
@@ -1229,154 +1170,174 @@
         <v>373032.30712</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>398708.4146500001</v>
+        <v>398708.41465</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>481394.7513999999</v>
+        <v>481395.97773</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>557217.3302499999</v>
+        <v>557562.0656400002</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>541492.2592099999</v>
+        <v>570581.7022000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>684552.5089700001</v>
+        <v>694203.3094700001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>747131.9380799999</v>
+        <v>747376.3381000002</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>985475.62286</v>
+        <v>985475.6228599999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1284818.62028</v>
+        <v>1284821.88228</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1486422.09507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1491124.18437</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1550287.094</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>26300219.77479</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>30873011.31742</v>
+        <v>30878010.21102</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>39182657.3965</v>
+        <v>39193187.35878</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>42802879.82085001</v>
+        <v>42824013.27559</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>51191429.15924</v>
+        <v>51509983.00836</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>57815953.86996</v>
+        <v>59406640.36480001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>64669639.32150001</v>
+        <v>66939919.62386</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>71764395.97016001</v>
+        <v>72525293.45789999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>85771151.55410999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>102029661.03688</v>
+        <v>102082414.48741</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>98463809.51604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>98871866.08642</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>123636911.034</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>20334665.64655</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>24081479.46515</v>
+        <v>24086345.51086</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>30459017.41667001</v>
+        <v>30468689.08472</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>33871156.09546001</v>
+        <v>33889670.76853</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>40124282.31123</v>
+        <v>40382617.10894001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>44809143.43561999</v>
+        <v>45974906.68637</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>49741159.20486</v>
+        <v>51471730.52831</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>55781359.07527</v>
+        <v>56295110.73827001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>67364463.47532001</v>
+        <v>67364463.47532</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>79867729.70457001</v>
+        <v>79917844.34130999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>77534408.51963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>77895388.56363</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>96602222.16599999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>16193270.99627</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>19443996.28054</v>
+        <v>19448862.32625</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>24267895.90772</v>
+        <v>24277567.25341</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>27404866.7194</v>
+        <v>27421619.40625</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31857626.17636</v>
+        <v>32085779.05294</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>35800554.37108</v>
+        <v>36897945.16669</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>39795143.70937</v>
+        <v>41251483.99061999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>44299307.63051</v>
+        <v>44801731.63797</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>54413054.96575999</v>
+        <v>54413054.96576</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>63859141.48373</v>
+        <v>63888217.81158999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>62652134.87946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>62890202.57529</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>75711548.036</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2337868.51841</v>
@@ -1385,37 +1346,42 @@
         <v>2870706.58041</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3693385.72726</v>
+        <v>3693386.04962</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4177340.35323</v>
+        <v>4178751.71508</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5110302.283980001</v>
+        <v>5122143.82842</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6047654.132209999</v>
+        <v>6075304.96053</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6537515.703900001</v>
+        <v>6692824.996470002</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7334516.137399999</v>
+        <v>7341249.004510001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>8934847.610130001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9520811.751690002</v>
+        <v>9534169.40309</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>8929999.07068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9039923.62786</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>14278680.608</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1699689.3749</v>
@@ -1427,34 +1393,39 @@
         <v>2339370.62453</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2039328.27969</v>
+        <v>2039678.90406</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2983926.59315</v>
+        <v>3002266.969839999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2680240.53885</v>
+        <v>2720960.83207</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3169618.2512</v>
+        <v>3204768.06776</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3799427.239039999</v>
+        <v>3801025.50066</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3503975.96121</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5821762.28066</v>
+        <v>5829024.33122</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5220523.361559999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5226190.99916</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5946667.777</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>103836.75697</v>
@@ -1472,262 +1443,297 @@
         <v>172427.25774</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>280694.39348</v>
+        <v>280695.72708</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>238881.54039</v>
+        <v>322653.4734600001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>348108.06832</v>
+        <v>351104.59513</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>512584.93822</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>666014.18849</v>
+        <v>666432.7954100001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>731751.2079299999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>739071.3613199999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>665325.745</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>5965554.12824</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6791531.85227</v>
+        <v>6791664.70016</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8723639.979830001</v>
+        <v>8724498.274060002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8931723.72539</v>
+        <v>8934342.507060001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>11067146.84801</v>
+        <v>11127365.89942</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>13006810.43434</v>
+        <v>13431733.67843</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>14928480.11664</v>
+        <v>15468189.09555</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>15983036.89489</v>
+        <v>16230182.71963</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>18406688.07879</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22161931.33231</v>
+        <v>22164570.1461</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>20929400.99641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20976477.52279</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>27034688.868</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3895567.96667</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4303618.57363</v>
+        <v>4303668.72862</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5078043.10449</v>
+        <v>5078555.67113</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5760972.80869</v>
+        <v>5763429.099060001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6501494.99762</v>
+        <v>6539719.53366</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7303802.73514</v>
+        <v>7392465.601119999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7853809.2398</v>
+        <v>8235153.642809999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8941175.137820002</v>
+        <v>9024565.31201</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>10228308.33236</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>11908382.09079</v>
+        <v>11941874.32313</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12777507.52981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12827954.45828</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>14077223.632</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>65961.44285000001</v>
+        <v>65961.44284999999</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>73280.65797</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>84187.62507000001</v>
+        <v>84187.62506999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>75270.15498000001</v>
+        <v>75270.15498000002</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>85605.44896000001</v>
+        <v>85627.12744000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>105767.06745</v>
+        <v>105771.86724</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>127365.24775</v>
+        <v>132348.65115</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>146861.46295</v>
+        <v>147025.92549</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>136139.02024</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>147070.23923</v>
+        <v>147075.04923</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>181170.79329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>181706.08371</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>158771.649</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1885946.00782</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2195852.13203</v>
+        <v>2195856.32357</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2708875.18687</v>
+        <v>2708971.35266</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3058043.68902</v>
+        <v>3059130.60087</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3420089.35077</v>
+        <v>3432917.001740001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3826331.92256</v>
+        <v>3855430.32244</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3969249.44639</v>
+        <v>4198169.466270001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4505187.817040001</v>
+        <v>4563436.95778</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>5321181.62134</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6314478.76376</v>
+        <v>6317392.959289999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6632188.903200001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6644535.32193</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7425702.209</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1943660.516</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2034485.78363</v>
+        <v>2034531.74708</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2284980.29255</v>
+        <v>2285396.6934</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2627658.964689999</v>
+        <v>2629028.34321</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2995800.19789</v>
+        <v>3021175.40448</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3371703.74513</v>
+        <v>3431263.41144</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3757194.54566</v>
+        <v>3904635.525390001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4289125.85783</v>
+        <v>4314102.428739999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4770987.69078</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5446833.0878</v>
+        <v>5477406.31461</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5964147.833319999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6001713.052639999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6492749.774</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>2069986.16157</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2487913.27864</v>
+        <v>2487995.97154</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3645596.87534</v>
+        <v>3645942.60293</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3170750.9167</v>
+        <v>3170913.407999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4565651.85039</v>
+        <v>4587646.36576</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5703007.6992</v>
+        <v>6039268.07731</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7074670.87684</v>
+        <v>7233035.45274</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7041861.75707</v>
+        <v>7205617.407620001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>8178379.74643</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10253549.24152</v>
+        <v>10222695.82297</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>8151893.4666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8148523.06451</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>12957465.236</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1672188.36136</v>
@@ -1736,37 +1742,42 @@
         <v>2112095.07016</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2563486.6892</v>
+        <v>2563489.4032</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2432224.04478</v>
+        <v>2432487.27786</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3331628.63237</v>
+        <v>3341136.48642</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3661819.00141</v>
+        <v>3699202.19005</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4211719.650030001</v>
+        <v>4381066.6543</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4718497.3875</v>
+        <v>4766110.067609999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5743593.898349999</v>
+        <v>5743593.89835</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13163226.64176</v>
+        <v>13198773.83494</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>12153781.75581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>12170696.20228</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12092379.922</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>120619.86267</v>
@@ -1778,40 +1789,45 @@
         <v>172526.81349</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>277043.78368</v>
+        <v>277043.7836800001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>211032.14638</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>152809.02692</v>
+        <v>170534.95523</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>239194.38703</v>
+        <v>239583.57189</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>245253.63239</v>
+        <v>246078.33476</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>257951.85826</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>156877.98678</v>
+        <v>157939.12483</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>133980.79345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>133774.48548</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>906140.406</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>16498.01543</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>73577.59522999999</v>
+        <v>73577.59523000001</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>22923.23013</v>
@@ -1823,28 +1839,33 @@
         <v>70773.11</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>88642.09853</v>
+        <v>89849.24980999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>513758.48094</v>
+        <v>514819.61529</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>482718.6273700001</v>
+        <v>482718.6273699999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>349666.7346000001</v>
+        <v>349666.7346</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>408832.64629</v>
+        <v>408832.6462899999</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>310664.39838</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>93995.68700000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>184521.04453</v>
@@ -1856,34 +1877,39 @@
         <v>187198.79106</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>233005.3315</v>
+        <v>233013.08965</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>211616.27924</v>
+        <v>212527.31002</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>277981.94814</v>
+        <v>278524.04614</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>339220.66418</v>
+        <v>344170.92873</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>409364.4554800001</v>
+        <v>416197.50921</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>533199.5467599999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>716105.97358</v>
+        <v>724189.2193900001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>934979.8855000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>937322.8614000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1015699.558</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>13971.36493</v>
@@ -1913,16 +1939,21 @@
         <v>25913.59203</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7808.08045</v>
+        <v>7808.080449999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5654.69805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4730.60876</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>8282.835999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>49868.25572</v>
@@ -1937,37 +1968,42 @@
         <v>46960.15009</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>58999.66943000001</v>
+        <v>59080.49156</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>63488.07147</v>
+        <v>63581.4603</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>44612.82467</v>
+        <v>50348.44317</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>36060.30837</v>
+        <v>36877.10556999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>46440.46478</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>146209.68919</v>
+        <v>146892.61402</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>195620.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>180990.508</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>47778.03047999999</v>
+        <v>47778.03048</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>85440.46874</v>
+        <v>85440.46874000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>23904.53908</v>
@@ -1976,13 +2012,13 @@
         <v>65271.62686999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>440583.33523</v>
+        <v>440583.3352299999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>265780.3484000001</v>
+        <v>265780.50387</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>102279.65537</v>
+        <v>103511.2888</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>600686.1226900001</v>
@@ -1991,19 +2027,24 @@
         <v>101672.74374</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1012096.40074</v>
+        <v>1012107.58807</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>227388.70749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>227389.49136</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>173638.073</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>975576.2489499999</v>
+        <v>975576.24895</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>1309021.02231</v>
@@ -2012,34 +2053,39 @@
         <v>1824236.8137</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1413051.61763</v>
+        <v>1413215.89922</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1973591.38134</v>
+        <v>1981498.96237</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2376058.91637</v>
+        <v>2384194.74782</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2448898.52006</v>
+        <v>2560977.25476</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2235245.11542</v>
+        <v>2273800.4078</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3592618.23658</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9438981.087920001</v>
+        <v>9459451.23246</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9070775.93984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9082221.533879999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8681825.039000001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>21224.02335</v>
@@ -2054,13 +2100,13 @@
         <v>22245.95834</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>41693.18844000001</v>
+        <v>41693.18844</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>64929.10984999999</v>
+        <v>66850.21879</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>106603.69253</v>
+        <v>109463.80488</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>168931.46495</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>218392.64281</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>160744.821</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>190.61028</v>
@@ -2105,19 +2156,24 @@
         <v>694.91545</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>310.68297</v>
+        <v>310.6829699999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>257.30715</v>
+        <v>266.20715</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>238.76773</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1525.837</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>241940.90502</v>
@@ -2126,37 +2182,42 @@
         <v>265686.17796</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>237675.36945</v>
+        <v>237678.08345</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>274267.47954</v>
+        <v>274358.67288</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>304090.04471</v>
+        <v>304698.4648200001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>346568.97357</v>
+        <v>354326.49993</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>391646.30064</v>
+        <v>432686.6221699999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>511503.83144</v>
+        <v>512086.6658700001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>677187.3723299999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1023405.42719</v>
+        <v>1028635.07981</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1056085.91256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1060341.40248</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>869537.157</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>996986.95701</v>
@@ -2168,34 +2229,39 @@
         <v>2014026.62714</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1375823.17025</v>
+        <v>1375888.84651</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2778287.451379999</v>
+        <v>2788473.34453</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2553502.99555</v>
+        <v>2574583.53474</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3477223.14995</v>
+        <v>3603056.10633</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3706068.34785</v>
+        <v>3719234.32339</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4655909.525780001</v>
+        <v>4655909.52578</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11718643.0766</v>
+        <v>11731545.8708</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>10406071.71052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10419354.78344</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10434193.867</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>10154.64845</v>
@@ -2216,31 +2282,36 @@
         <v>15772.00069</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12482.0908</v>
+        <v>12604.65459</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>18397.0189</v>
+        <v>18397.0249</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>15720.22614</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>25010.05966</v>
+        <v>25010.08591</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>30123.75668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>30137.14193</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>28521.715</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>147289.75791</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>93855.66552</v>
+        <v>93855.66552000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>113289.33757</v>
@@ -2249,34 +2320,39 @@
         <v>155514.65132</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>201043.43671</v>
+        <v>201187.30405</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>152717.35676</v>
+        <v>156115.56979</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>219154.41582</v>
+        <v>227939.73777</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>207431.15171</v>
+        <v>208010.79007</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>169294.07653</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>336966.74817</v>
+        <v>337178.41278</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>391251.81086</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>392478.08546</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>235165.76</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>973.8795799999999</v>
+        <v>973.87958</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>30374.62198</v>
@@ -2288,7 +2364,7 @@
         <v>839.48976</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>21584.11614</v>
+        <v>21584.11614000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>4003.01583</v>
@@ -2306,52 +2382,62 @@
         <v>282596.5156699999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>192285.15663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>192287.15663</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>31201.058</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>748197.61855</v>
+        <v>748197.6185499999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>917821.09801</v>
+        <v>917821.0980099998</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1763794.17902</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1079723.53054</v>
+        <v>1079763.9795</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2378547.50089</v>
+        <v>2387709.6596</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2156661.81495</v>
+        <v>2164818.79986</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2975730.63301</v>
+        <v>3053104.09448</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3062136.19082</v>
+        <v>3074672.79323</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4013549.15999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10396546.85257</v>
+        <v>10407231.04897</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9191643.15082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9202268.77668</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9487324.682</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>19667.81015</v>
@@ -2366,13 +2452,13 @@
         <v>25990.68101</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>54946.32337999999</v>
+        <v>54946.32338</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>69655.51988000001</v>
+        <v>71634.00073</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>119474.64024</v>
+        <v>122028.71546</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>181444.59237</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>196772.35249</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>189987.385</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>15.86531</v>
@@ -2405,7 +2496,7 @@
         <v>74.87691000000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>99.39900000000002</v>
+        <v>99.399</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>730.0627300000001</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>856.54291</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>70687.37706</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>87082.81149000001</v>
+        <v>87082.81148999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>98708.13806999999</v>
+        <v>98708.13807</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>103555.7453</v>
+        <v>103580.9726</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>111900.11187</v>
+        <v>112779.97897</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>153963.22471</v>
+        <v>161510.08511</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>149191.35016</v>
+        <v>186188.88411</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>218796.90633</v>
+        <v>218846.6351</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>250384.82134</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>394501.99408</v>
+        <v>396508.90102</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>403138.94013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>404554.7273399999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>461992.691</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1094124.99577</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>948857.1968400001</v>
+        <v>948894.52729</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1709543.95078</v>
+        <v>1709589.3629</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1239155.23523</v>
+        <v>1239584.91165</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1992994.04574</v>
+        <v>1998628.46867</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1867735.11526</v>
+        <v>1903043.4541</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2528992.19884</v>
+        <v>2700533.01014</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3129936.98739</v>
+        <v>3245828.19176</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>4489407.67858</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8335058.93561</v>
+        <v>8338485.041200001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7686239.12053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7701482.149630001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8760275.919</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>854809.7277200001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>669455.47685</v>
+        <v>669492.8073</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>998154.7049299999</v>
+        <v>998200.11705</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>928012.66681</v>
+        <v>928442.34323</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1242937.64591</v>
+        <v>1248572.06884</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1330831.45822</v>
+        <v>1357594.1172</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1761242.38743</v>
+        <v>1923297.0392</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2374288.56161</v>
+        <v>2490179.76598</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>3216273.44501</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5439347.71468</v>
+        <v>5441881.842940001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5135861.52683</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5150989.82573</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5389004.793</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>239315.26805</v>
@@ -2558,115 +2669,130 @@
         <v>711389.2458500001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>311142.56842</v>
+        <v>311142.5684200001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>750056.3998299999</v>
+        <v>750056.3998300001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>536903.65704</v>
+        <v>545449.3369</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>767749.81141</v>
+        <v>777235.9709399999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>755648.42578</v>
+        <v>755648.4257799999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1273134.23357</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2895711.22093</v>
+        <v>2896603.19826</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2550377.5937</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2550492.3239</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3371271.126</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1651062.57015</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2496570.54637</v>
+        <v>2496615.90882</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2485512.98662</v>
+        <v>2485816.01609</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2987996.556</v>
+        <v>2987926.9277</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3125998.98564</v>
+        <v>3141681.03898</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4943588.589800001</v>
+        <v>5260843.278519999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5280175.17808</v>
+        <v>5310512.990569999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4924353.809329999</v>
+        <v>5006664.96008</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4776656.44042</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3363073.87107</v>
+        <v>3351438.74591</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2213364.39136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2198382.33372</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5855375.372</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>352276.82631</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>384837.93068</v>
+        <v>384839.5956</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>392820.34038</v>
+        <v>392825.30399</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>826452.2671399999</v>
+        <v>826575.1157900001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>983688.15315</v>
+        <v>988515.2019600001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>945095.9593999998</v>
+        <v>950156.4152200001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>769734.4385599999</v>
+        <v>811469.46747</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1316806.46334</v>
+        <v>1322573.73394</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1164475.20489</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1359053.11012</v>
+        <v>1363522.25486</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1353702.56186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1367105.00035</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1578606.278</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>36396.21462999999</v>
+        <v>36396.21463</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>27816.74606</v>
@@ -2681,10 +2807,10 @@
         <v>18121.70588</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>14916.63637</v>
+        <v>14929.57228</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>19105.08598</v>
+        <v>19353.24835</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>21633.63412</v>
@@ -2693,97 +2819,112 @@
         <v>23493.72435</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>21722.1893</v>
+        <v>21722.18931</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>25152.17643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>25151.41145</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>23307.707</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>315880.61168</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>357021.18462</v>
+        <v>357022.84954</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>378619.05229</v>
+        <v>378624.0159</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>817784.37477</v>
+        <v>817907.2234200001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>965566.44727</v>
+        <v>970393.4960800001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>930179.32303</v>
+        <v>935226.84294</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>750629.3525800001</v>
+        <v>792116.21912</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1295172.82922</v>
+        <v>1300940.09982</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1140981.48054</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1337330.92082</v>
+        <v>1341800.06555</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1328550.38543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1341953.5889</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1555298.571</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>544955.8871500001</v>
+        <v>544955.88715</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>467596.8894</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>972434.47426</v>
+        <v>972440.09895</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1043521.0803</v>
+        <v>1043615.09272</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>715178.3709200001</v>
+        <v>716488.3534200001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1007323.27158</v>
+        <v>1021642.46037</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>954543.2540799999</v>
+        <v>984205.6003099999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1340917.77292</v>
+        <v>1356590.42405</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1192425.61623</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1784116.32594</v>
+        <v>1801146.50407</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1821976.61642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1830290.4105</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1972207.611</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>255680.5511400001</v>
+        <v>255680.55114</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>203514.38251</v>
@@ -2792,37 +2933,42 @@
         <v>265115.34103</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>300956.5905400001</v>
+        <v>301025.0783800001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>334919.33164</v>
+        <v>334937.0312799999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>357807.9034800001</v>
+        <v>363149.95205</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>384003.00816</v>
+        <v>397176.5576999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>363667.0855599999</v>
+        <v>371450.70731</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>408905.1621199999</v>
+        <v>408905.1621200001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>718573.1527100001</v>
+        <v>727208.1935299998</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>924432.5217299999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>925983.79273</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>794486.45</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>48911.23716999999</v>
+        <v>48911.23717</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>36526.43501</v>
@@ -2834,31 +2980,36 @@
         <v>28605.86781</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>52136.52039</v>
+        <v>52154.28311</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>51134.08584</v>
+        <v>51368.89567999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>47593.69922000001</v>
+        <v>49302.26518</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>77033.11800000002</v>
+        <v>80297.04651999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>55425.87769</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>62371.35834000001</v>
+        <v>62391.88102999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>89213.41905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>89411.02161999998</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>63201.492</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>240364.09884</v>
@@ -2867,76 +3018,86 @@
         <v>227556.07188</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>673768.64688</v>
+        <v>673774.2715700001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>713958.6219500001</v>
+        <v>713984.1465300001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>328122.51889</v>
+        <v>329397.03903</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>598381.28226</v>
+        <v>607123.6126399999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>522946.5467000001</v>
+        <v>537726.77743</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>900217.5693600001</v>
+        <v>904842.67022</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>728094.5764199999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1003171.81489</v>
+        <v>1011546.42951</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>808330.67564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>814895.59615</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1114519.669</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1458383.50931</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2413811.58765</v>
+        <v>2413858.61502</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1905898.85274</v>
+        <v>1906201.22113</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2770927.742839999</v>
+        <v>2770886.95077</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3394508.767870001</v>
+        <v>3413707.88752</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4881361.277620001</v>
+        <v>5189357.23337</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5095366.36256</v>
+        <v>5137776.857729999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4900242.49975</v>
+        <v>4972648.269970001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>4748706.02908</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2938010.655249999</v>
+        <v>2913814.4967</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1745090.3368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1735196.923569999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5461774.039</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>340972.75157</v>
@@ -2945,73 +3106,81 @@
         <v>469852.23038</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>560337.7853699999</v>
+        <v>560339.1299300001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>491828.76151</v>
+        <v>491896.81084</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>613011.1607799999</v>
+        <v>617404.02515</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>811600.4779999999</v>
+        <v>869731.79606</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>924452.2869500002</v>
+        <v>937756.51937</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>929913.0571699998</v>
+        <v>943974.72836</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>858705.6760699999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>997874.8359399999</v>
+        <v>999082.66414</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>835121.01951</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>836774.35061</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1276035.176</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1117410.75774</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1943959.35727</v>
+        <v>1944006.38464</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1345561.06737</v>
+        <v>1345862.0912</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2279098.98133</v>
+        <v>2278990.13993</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2781497.60709</v>
+        <v>2796303.86237</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4069760.79962</v>
+        <v>4319625.437309999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4170914.07561</v>
+        <v>4200020.33836</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3970329.44258</v>
+        <v>4028673.54161</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3890000.35301</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1940135.81931</v>
+        <v>1914731.83256</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>909969.3172899999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>898422.5729599996</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4185738.863</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5978</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6093</v>
+        <v>6094</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6231</v>
+        <v>6234</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6202</v>
+        <v>6208</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6283</v>
+        <v>6302</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6319</v>
+        <v>6354</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6386</v>
+        <v>6473</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6610</v>
+        <v>6638</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6853</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6299</v>
+        <v>6996</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7103</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7364</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>